--- a/documents/Published/Brick Chart/BrickChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Brick Chart/BrickChartByMAQSoftwareChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18518"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\BrickChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Brick Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13327BD-80C3-4C0E-8435-D73EB4775E86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{1AF0E79B-7FE4-4698-B98E-B5963A3F5031}"/>
   </bookViews>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Feature</t>
   </si>
@@ -225,6 +226,49 @@
 6. Update 'Legend name' to 'buyers name'
 7. Update 'Color' to 'black'
 8. Update 'Text size' to '14'</t>
+  </si>
+  <si>
+    <t>Change Data Color</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Go to 'Data Colors'
+3. Update color of first category to 'red'</t>
+  </si>
+  <si>
+    <t>Data Color should be changed to red</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Gradient should not be seen in data points</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Toggle 'Animation' to off</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Toggle 'Gradient' to off</t>
+  </si>
+  <si>
+    <t>Animation should be turned off</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Update 'Box shape' to rectangle
+3. Update 'Brick type' to circle</t>
+  </si>
+  <si>
+    <t>1. The shape of the chart should be turned to 'rectangle'
+2. The data points should be dispayed as 'circle'</t>
   </si>
 </sst>
 </file>
@@ -356,41 +400,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,17 +750,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6597BE80-5597-4BE2-86EA-034E95536383}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,6 +817,62 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -970,29 +1070,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1006,41 +1106,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
